--- a/Filtered_By_Region/Region XII/Region XII_REPAIR.xlsx
+++ b/Filtered_By_Region/Region XII/Region XII_REPAIR.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU75"/>
+  <dimension ref="A1:AV75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,6 +674,11 @@
           <t>Unnamed: 46</t>
         </is>
       </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -723,7 +729,6 @@
       <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -732,17 +737,6 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
@@ -785,16 +779,11 @@
       <c r="AN2" t="n">
         <v>0</v>
       </c>
-      <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -850,7 +839,6 @@
       <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -859,17 +847,6 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
@@ -912,16 +889,11 @@
       <c r="AN3" t="n">
         <v>0</v>
       </c>
-      <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -977,7 +949,6 @@
       <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -986,17 +957,6 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
@@ -1039,16 +999,11 @@
       <c r="AN4" t="n">
         <v>0</v>
       </c>
-      <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1104,7 +1059,6 @@
       <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1113,17 +1067,6 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
@@ -1166,16 +1109,11 @@
       <c r="AN5" t="n">
         <v>0</v>
       </c>
-      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1231,7 +1169,6 @@
       <c r="L6" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1240,17 +1177,6 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
@@ -1293,16 +1219,11 @@
       <c r="AN6" t="n">
         <v>0</v>
       </c>
-      <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1358,7 +1279,6 @@
       <c r="L7" t="n">
         <v>1</v>
       </c>
-      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1367,17 +1287,6 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
@@ -1420,16 +1329,11 @@
       <c r="AN7" t="n">
         <v>0</v>
       </c>
-      <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1485,7 +1389,6 @@
       <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1494,23 +1397,15 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" s="2" t="n">
+      <c r="T8" s="3" t="n">
         <v>43841</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="U8" s="3" t="n">
         <v>43852</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
@@ -1553,16 +1448,11 @@
       <c r="AN8" t="n">
         <v>0</v>
       </c>
-      <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1618,7 +1508,6 @@
       <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1627,23 +1516,15 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="3" t="n">
         <v>43841</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="3" t="n">
         <v>43852</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="V9" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
@@ -1686,16 +1567,11 @@
       <c r="AN9" t="n">
         <v>0</v>
       </c>
-      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1751,7 +1627,6 @@
       <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1760,23 +1635,15 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="3" t="n">
         <v>43841</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" s="3" t="n">
         <v>43852</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="V10" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
@@ -1819,16 +1686,11 @@
       <c r="AN10" t="n">
         <v>0</v>
       </c>
-      <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1884,7 +1746,6 @@
       <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1893,23 +1754,15 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" s="2" t="n">
+      <c r="T11" s="3" t="n">
         <v>43841</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="U11" s="3" t="n">
         <v>43852</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="V11" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
@@ -1952,16 +1805,11 @@
       <c r="AN11" t="n">
         <v>0</v>
       </c>
-      <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2017,7 +1865,6 @@
       <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2026,23 +1873,15 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="3" t="n">
         <v>43841</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="U12" s="3" t="n">
         <v>43852</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
@@ -2085,16 +1924,11 @@
       <c r="AN12" t="n">
         <v>0</v>
       </c>
-      <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2150,7 +1984,6 @@
       <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2159,23 +1992,15 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="3" t="n">
         <v>43841</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="3" t="n">
         <v>43852</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
@@ -2226,9 +2051,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -2289,7 +2111,6 @@
       <c r="L14" t="n">
         <v>1</v>
       </c>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2298,23 +2119,15 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="3" t="n">
         <v>43841</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="3" t="n">
         <v>43852</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
@@ -2357,16 +2170,11 @@
       <c r="AN14" t="n">
         <v>0</v>
       </c>
-      <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
       <c r="AU14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2422,7 +2230,6 @@
       <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2431,23 +2238,15 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" s="2" t="n">
+      <c r="T15" s="3" t="n">
         <v>43841</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="3" t="n">
         <v>43852</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
@@ -2490,16 +2289,11 @@
       <c r="AN15" t="n">
         <v>0</v>
       </c>
-      <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
       <c r="AU15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2555,7 +2349,6 @@
       <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2564,17 +2357,6 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
@@ -2617,16 +2399,11 @@
       <c r="AN16" t="n">
         <v>0</v>
       </c>
-      <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
       <c r="AU16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2682,7 +2459,6 @@
       <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2691,17 +2467,6 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
@@ -2744,16 +2509,11 @@
       <c r="AN17" t="n">
         <v>0</v>
       </c>
-      <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2809,7 +2569,6 @@
       <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2818,17 +2577,6 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
@@ -2871,16 +2619,11 @@
       <c r="AN18" t="n">
         <v>0</v>
       </c>
-      <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
       <c r="AU18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2936,7 +2679,6 @@
       <c r="L19" t="n">
         <v>1</v>
       </c>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2945,17 +2687,6 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
@@ -2998,16 +2729,11 @@
       <c r="AN19" t="n">
         <v>0</v>
       </c>
-      <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="inlineStr"/>
       <c r="AU19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3063,7 +2789,6 @@
       <c r="L20" t="n">
         <v>1</v>
       </c>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3072,17 +2797,6 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
@@ -3125,16 +2839,11 @@
       <c r="AN20" t="n">
         <v>0</v>
       </c>
-      <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="inlineStr"/>
       <c r="AU20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3190,7 +2899,6 @@
       <c r="L21" t="n">
         <v>1</v>
       </c>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3199,17 +2907,6 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
@@ -3252,16 +2949,11 @@
       <c r="AN21" t="n">
         <v>0</v>
       </c>
-      <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
-      <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3317,7 +3009,6 @@
       <c r="L22" t="n">
         <v>1</v>
       </c>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3326,17 +3017,6 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
@@ -3379,16 +3059,11 @@
       <c r="AN22" t="n">
         <v>0</v>
       </c>
-      <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
-      <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3444,7 +3119,6 @@
       <c r="L23" t="n">
         <v>1</v>
       </c>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3453,17 +3127,6 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
@@ -3506,16 +3169,11 @@
       <c r="AN23" t="n">
         <v>0</v>
       </c>
-      <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
-      <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3571,7 +3229,6 @@
       <c r="L24" t="n">
         <v>1</v>
       </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3580,17 +3237,6 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
@@ -3633,16 +3279,11 @@
       <c r="AN24" t="n">
         <v>0</v>
       </c>
-      <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
-      <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3698,7 +3339,6 @@
       <c r="L25" t="n">
         <v>1</v>
       </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3707,17 +3347,6 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
@@ -3760,16 +3389,11 @@
       <c r="AN25" t="n">
         <v>0</v>
       </c>
-      <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
-      <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3825,7 +3449,6 @@
       <c r="L26" t="n">
         <v>1</v>
       </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3834,17 +3457,6 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
@@ -3887,16 +3499,11 @@
       <c r="AN26" t="n">
         <v>0</v>
       </c>
-      <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
-      <c r="AT26" t="inlineStr"/>
       <c r="AU26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3952,7 +3559,6 @@
       <c r="L27" t="n">
         <v>1</v>
       </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3966,8 +3572,6 @@
           <t>Mar. 15, 2021</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
           <t>2020-008</t>
@@ -4003,7 +3607,6 @@
           <t>Palmares Gen. Merchandise</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
@@ -4046,16 +3649,11 @@
       <c r="AN27" t="n">
         <v>0</v>
       </c>
-      <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4111,7 +3709,6 @@
       <c r="L28" t="n">
         <v>1</v>
       </c>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4130,7 +3727,6 @@
           <t>Feb. 15, 2021</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
           <t>2020-007</t>
@@ -4166,7 +3762,6 @@
           <t>Cofejok Construction &amp; Supply Corporation</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
@@ -4209,16 +3804,11 @@
       <c r="AN28" t="n">
         <v>0</v>
       </c>
-      <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
-      <c r="AT28" t="inlineStr"/>
       <c r="AU28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4274,7 +3864,6 @@
       <c r="L29" t="n">
         <v>1</v>
       </c>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4293,7 +3882,6 @@
           <t>Feb. 15, 2021</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
         <v>2020010</v>
       </c>
@@ -4327,7 +3915,6 @@
           <t>KLD Engineering Construction</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
@@ -4370,16 +3957,11 @@
       <c r="AN29" t="n">
         <v>0</v>
       </c>
-      <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
-      <c r="AT29" t="inlineStr"/>
       <c r="AU29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4435,7 +4017,6 @@
       <c r="L30" t="n">
         <v>1</v>
       </c>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4454,7 +4035,6 @@
           <t>Jun. 10, 2021</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
           <t>2020-011</t>
@@ -4490,7 +4070,6 @@
           <t>Bamec Developer</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
@@ -4533,16 +4112,11 @@
       <c r="AN30" t="n">
         <v>0</v>
       </c>
-      <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="inlineStr"/>
       <c r="AU30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4598,7 +4172,6 @@
       <c r="L31" t="n">
         <v>1</v>
       </c>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4617,7 +4190,6 @@
           <t>Jun. 10, 2021</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
           <t>2020-009</t>
@@ -4653,7 +4225,6 @@
           <t>Bamec Developer</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
@@ -4696,16 +4267,11 @@
       <c r="AN31" t="n">
         <v>0</v>
       </c>
-      <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
-      <c r="AT31" t="inlineStr"/>
       <c r="AU31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4761,7 +4327,6 @@
       <c r="L32" t="n">
         <v>1</v>
       </c>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4770,19 +4335,9 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" s="2" t="n">
+      <c r="P32" s="3" t="n">
         <v>44926</v>
       </c>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
@@ -4833,9 +4388,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
       <c r="AT32" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -4896,7 +4448,6 @@
       <c r="L33" t="n">
         <v>1</v>
       </c>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4905,19 +4456,9 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" s="2" t="n">
+      <c r="P33" s="3" t="n">
         <v>44926</v>
       </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
@@ -4968,9 +4509,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
       <c r="AT33" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -5031,7 +4569,6 @@
       <c r="L34" t="n">
         <v>1</v>
       </c>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5040,17 +4577,6 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
@@ -5101,10 +4627,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="inlineStr"/>
       <c r="AU34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5160,7 +4682,6 @@
       <c r="L35" t="n">
         <v>1</v>
       </c>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5169,17 +4690,6 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
@@ -5230,10 +4740,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
-      <c r="AT35" t="inlineStr"/>
       <c r="AU35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5289,7 +4795,6 @@
       <c r="L36" t="n">
         <v>1</v>
       </c>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5298,19 +4803,9 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" s="2" t="n">
+      <c r="P36" s="3" t="n">
         <v>44926</v>
       </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
@@ -5359,9 +4854,6 @@
       <c r="AP36" t="n">
         <v>8.23</v>
       </c>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
       <c r="AT36" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -5422,7 +4914,6 @@
       <c r="L37" t="n">
         <v>1</v>
       </c>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5431,17 +4922,6 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
@@ -5492,10 +4972,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr"/>
-      <c r="AT37" t="inlineStr"/>
       <c r="AU37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5551,7 +5027,6 @@
       <c r="L38" t="n">
         <v>1</v>
       </c>
-      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5560,17 +5035,6 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="n">
         <v>0</v>
       </c>
@@ -5621,10 +5085,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr"/>
-      <c r="AT38" t="inlineStr"/>
       <c r="AU38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5680,7 +5140,6 @@
       <c r="L39" t="n">
         <v>1</v>
       </c>
-      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5689,17 +5148,6 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
@@ -5750,10 +5198,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr"/>
-      <c r="AT39" t="inlineStr"/>
       <c r="AU39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5809,7 +5253,6 @@
       <c r="L40" t="n">
         <v>1</v>
       </c>
-      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5818,19 +5261,9 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" s="2" t="n">
+      <c r="P40" s="3" t="n">
         <v>44926</v>
       </c>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
@@ -5879,9 +5312,6 @@
       <c r="AP40" t="n">
         <v>8.23</v>
       </c>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
       <c r="AT40" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -5942,7 +5372,6 @@
       <c r="L41" t="n">
         <v>1</v>
       </c>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5951,19 +5380,9 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" s="2" t="n">
+      <c r="P41" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
@@ -6014,10 +5433,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr"/>
-      <c r="AT41" t="inlineStr"/>
       <c r="AU41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6073,7 +5488,6 @@
       <c r="L42" t="n">
         <v>1</v>
       </c>
-      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6082,17 +5496,6 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="n">
         <v>0</v>
       </c>
@@ -6143,10 +5546,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="inlineStr"/>
-      <c r="AT42" t="inlineStr"/>
       <c r="AU42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6202,7 +5601,6 @@
       <c r="L43" t="n">
         <v>1</v>
       </c>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6211,17 +5609,6 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
@@ -6272,10 +5659,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="inlineStr"/>
-      <c r="AT43" t="inlineStr"/>
       <c r="AU43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6331,7 +5714,6 @@
       <c r="L44" t="n">
         <v>1</v>
       </c>
-      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6340,19 +5722,9 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="P44" s="2" t="n">
+      <c r="P44" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="n">
         <v>0</v>
       </c>
@@ -6403,10 +5775,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ44" t="inlineStr"/>
-      <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="inlineStr"/>
-      <c r="AT44" t="inlineStr"/>
       <c r="AU44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6462,7 +5830,6 @@
       <c r="L45" t="n">
         <v>1</v>
       </c>
-      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6471,19 +5838,9 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" s="2" t="n">
+      <c r="P45" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="n">
         <v>0</v>
       </c>
@@ -6534,10 +5891,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ45" t="inlineStr"/>
-      <c r="AR45" t="inlineStr"/>
-      <c r="AS45" t="inlineStr"/>
-      <c r="AT45" t="inlineStr"/>
       <c r="AU45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6593,7 +5946,6 @@
       <c r="L46" t="n">
         <v>1</v>
       </c>
-      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6602,17 +5954,6 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="n">
         <v>0</v>
       </c>
@@ -6663,10 +6004,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ46" t="inlineStr"/>
-      <c r="AR46" t="inlineStr"/>
-      <c r="AS46" t="inlineStr"/>
-      <c r="AT46" t="inlineStr"/>
       <c r="AU46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6722,7 +6059,6 @@
       <c r="L47" t="n">
         <v>1</v>
       </c>
-      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6731,17 +6067,6 @@
       <c r="O47" t="n">
         <v>1</v>
       </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="n">
         <v>0</v>
       </c>
@@ -6792,10 +6117,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ47" t="inlineStr"/>
-      <c r="AR47" t="inlineStr"/>
-      <c r="AS47" t="inlineStr"/>
-      <c r="AT47" t="inlineStr"/>
       <c r="AU47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6851,7 +6172,6 @@
       <c r="L48" t="n">
         <v>1</v>
       </c>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6860,19 +6180,9 @@
       <c r="O48" t="n">
         <v>1</v>
       </c>
-      <c r="P48" s="2" t="n">
+      <c r="P48" s="3" t="n">
         <v>44895</v>
       </c>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="n">
         <v>0</v>
       </c>
@@ -6921,9 +6231,6 @@
       <c r="AP48" t="n">
         <v>8.23</v>
       </c>
-      <c r="AQ48" t="inlineStr"/>
-      <c r="AR48" t="inlineStr"/>
-      <c r="AS48" t="inlineStr"/>
       <c r="AT48" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -6984,7 +6291,6 @@
       <c r="L49" t="n">
         <v>1</v>
       </c>
-      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6993,17 +6299,6 @@
       <c r="O49" t="n">
         <v>1</v>
       </c>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="n">
         <v>0</v>
       </c>
@@ -7054,10 +6349,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ49" t="inlineStr"/>
-      <c r="AR49" t="inlineStr"/>
-      <c r="AS49" t="inlineStr"/>
-      <c r="AT49" t="inlineStr"/>
       <c r="AU49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7113,7 +6404,6 @@
       <c r="L50" t="n">
         <v>1</v>
       </c>
-      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7122,17 +6412,6 @@
       <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="n">
         <v>0</v>
       </c>
@@ -7183,10 +6462,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ50" t="inlineStr"/>
-      <c r="AR50" t="inlineStr"/>
-      <c r="AS50" t="inlineStr"/>
-      <c r="AT50" t="inlineStr"/>
       <c r="AU50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7242,7 +6517,6 @@
       <c r="L51" t="n">
         <v>1</v>
       </c>
-      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7251,17 +6525,6 @@
       <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="n">
         <v>0</v>
       </c>
@@ -7312,10 +6575,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ51" t="inlineStr"/>
-      <c r="AR51" t="inlineStr"/>
-      <c r="AS51" t="inlineStr"/>
-      <c r="AT51" t="inlineStr"/>
       <c r="AU51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7371,7 +6630,6 @@
       <c r="L52" t="n">
         <v>1</v>
       </c>
-      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7380,17 +6638,6 @@
       <c r="O52" t="n">
         <v>1</v>
       </c>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="n">
         <v>0</v>
       </c>
@@ -7441,10 +6688,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ52" t="inlineStr"/>
-      <c r="AR52" t="inlineStr"/>
-      <c r="AS52" t="inlineStr"/>
-      <c r="AT52" t="inlineStr"/>
       <c r="AU52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7500,7 +6743,6 @@
       <c r="L53" t="n">
         <v>1</v>
       </c>
-      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7509,17 +6751,6 @@
       <c r="O53" t="n">
         <v>1</v>
       </c>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="n">
         <v>0</v>
       </c>
@@ -7570,10 +6801,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ53" t="inlineStr"/>
-      <c r="AR53" t="inlineStr"/>
-      <c r="AS53" t="inlineStr"/>
-      <c r="AT53" t="inlineStr"/>
       <c r="AU53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7629,7 +6856,6 @@
       <c r="L54" t="n">
         <v>1</v>
       </c>
-      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7638,17 +6864,6 @@
       <c r="O54" t="n">
         <v>1</v>
       </c>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="n">
         <v>0</v>
       </c>
@@ -7699,10 +6914,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ54" t="inlineStr"/>
-      <c r="AR54" t="inlineStr"/>
-      <c r="AS54" t="inlineStr"/>
-      <c r="AT54" t="inlineStr"/>
       <c r="AU54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7758,7 +6969,6 @@
       <c r="L55" t="n">
         <v>1</v>
       </c>
-      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7767,17 +6977,6 @@
       <c r="O55" t="n">
         <v>1</v>
       </c>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="n">
         <v>0</v>
       </c>
@@ -7828,10 +7027,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ55" t="inlineStr"/>
-      <c r="AR55" t="inlineStr"/>
-      <c r="AS55" t="inlineStr"/>
-      <c r="AT55" t="inlineStr"/>
       <c r="AU55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7887,7 +7082,6 @@
       <c r="L56" t="n">
         <v>1</v>
       </c>
-      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7896,17 +7090,6 @@
       <c r="O56" t="n">
         <v>1</v>
       </c>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="n">
         <v>0</v>
       </c>
@@ -7957,10 +7140,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ56" t="inlineStr"/>
-      <c r="AR56" t="inlineStr"/>
-      <c r="AS56" t="inlineStr"/>
-      <c r="AT56" t="inlineStr"/>
       <c r="AU56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8016,7 +7195,6 @@
       <c r="L57" t="n">
         <v>1</v>
       </c>
-      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8025,17 +7203,6 @@
       <c r="O57" t="n">
         <v>1</v>
       </c>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="n">
         <v>0</v>
       </c>
@@ -8086,10 +7253,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ57" t="inlineStr"/>
-      <c r="AR57" t="inlineStr"/>
-      <c r="AS57" t="inlineStr"/>
-      <c r="AT57" t="inlineStr"/>
       <c r="AU57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8145,7 +7308,6 @@
       <c r="L58" t="n">
         <v>1</v>
       </c>
-      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8154,17 +7316,6 @@
       <c r="O58" t="n">
         <v>1</v>
       </c>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="n">
         <v>0</v>
       </c>
@@ -8215,10 +7366,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ58" t="inlineStr"/>
-      <c r="AR58" t="inlineStr"/>
-      <c r="AS58" t="inlineStr"/>
-      <c r="AT58" t="inlineStr"/>
       <c r="AU58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8274,7 +7421,6 @@
       <c r="L59" t="n">
         <v>1</v>
       </c>
-      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8283,17 +7429,6 @@
       <c r="O59" t="n">
         <v>1</v>
       </c>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="n">
         <v>0</v>
       </c>
@@ -8344,10 +7479,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ59" t="inlineStr"/>
-      <c r="AR59" t="inlineStr"/>
-      <c r="AS59" t="inlineStr"/>
-      <c r="AT59" t="inlineStr"/>
       <c r="AU59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8403,7 +7534,6 @@
       <c r="L60" t="n">
         <v>1</v>
       </c>
-      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8412,19 +7542,9 @@
       <c r="O60" t="n">
         <v>1</v>
       </c>
-      <c r="P60" s="2" t="n">
+      <c r="P60" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="n">
         <v>0</v>
       </c>
@@ -8475,9 +7595,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ60" t="inlineStr"/>
-      <c r="AR60" t="inlineStr"/>
-      <c r="AS60" t="inlineStr"/>
       <c r="AT60" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -8599,7 +7716,6 @@
           <t>John Ray Developer &amp; Supplies</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="n">
         <v>0</v>
       </c>
@@ -8650,10 +7766,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ61" t="inlineStr"/>
-      <c r="AR61" t="inlineStr"/>
-      <c r="AS61" t="inlineStr"/>
-      <c r="AT61" t="inlineStr"/>
       <c r="AU61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8770,7 +7882,6 @@
           <t>Cofejok Construction &amp; Supply Corporation</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="n">
         <v>0</v>
       </c>
@@ -8821,10 +7932,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ62" t="inlineStr"/>
-      <c r="AR62" t="inlineStr"/>
-      <c r="AS62" t="inlineStr"/>
-      <c r="AT62" t="inlineStr"/>
       <c r="AU62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8880,7 +7987,6 @@
       <c r="L63" t="n">
         <v>1</v>
       </c>
-      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8889,17 +7995,6 @@
       <c r="O63" t="n">
         <v>1</v>
       </c>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="n">
         <v>0</v>
       </c>
@@ -8950,10 +8045,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ63" t="inlineStr"/>
-      <c r="AR63" t="inlineStr"/>
-      <c r="AS63" t="inlineStr"/>
-      <c r="AT63" t="inlineStr"/>
       <c r="AU63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9013,7 +8104,6 @@
           <t>DPWH (Batch 2)</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9022,17 +8112,6 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="n">
         <v>0</v>
       </c>
@@ -9075,14 +8154,9 @@
       <c r="AN64" t="n">
         <v>0</v>
       </c>
-      <c r="AO64" t="inlineStr"/>
       <c r="AP64" t="n">
         <v>7.24</v>
       </c>
-      <c r="AQ64" t="inlineStr"/>
-      <c r="AR64" t="inlineStr"/>
-      <c r="AS64" t="inlineStr"/>
-      <c r="AT64" t="inlineStr"/>
       <c r="AU64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9140,7 +8214,6 @@
       <c r="L65" t="n">
         <v>1</v>
       </c>
-      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9149,7 +8222,6 @@
       <c r="O65" t="n">
         <v>1</v>
       </c>
-      <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
           <t>002-2025- Lot 2</t>
@@ -9161,13 +8233,13 @@
       <c r="S65" t="n">
         <v>45665</v>
       </c>
-      <c r="T65" s="2" t="n">
+      <c r="T65" s="3" t="n">
         <v>45678</v>
       </c>
-      <c r="U65" s="2" t="n">
+      <c r="U65" s="3" t="n">
         <v>45692</v>
       </c>
-      <c r="V65" s="2" t="n">
+      <c r="V65" s="3" t="n">
         <v>45705</v>
       </c>
       <c r="W65" t="inlineStr">
@@ -9175,9 +8247,6 @@
           <t>Manuela Construction</t>
         </is>
       </c>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="n">
         <v>0</v>
       </c>
@@ -9220,14 +8289,9 @@
       <c r="AN65" t="n">
         <v>0.7</v>
       </c>
-      <c r="AO65" t="inlineStr"/>
       <c r="AP65" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ65" t="inlineStr"/>
-      <c r="AR65" t="inlineStr"/>
-      <c r="AS65" t="inlineStr"/>
-      <c r="AT65" t="inlineStr"/>
       <c r="AU65" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -9285,7 +8349,6 @@
       <c r="L66" t="n">
         <v>1</v>
       </c>
-      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9294,7 +8357,6 @@
       <c r="O66" t="n">
         <v>1</v>
       </c>
-      <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
           <t>002-2025- Lot 1</t>
@@ -9306,13 +8368,13 @@
       <c r="S66" t="n">
         <v>45665</v>
       </c>
-      <c r="T66" s="2" t="n">
+      <c r="T66" s="3" t="n">
         <v>45678</v>
       </c>
-      <c r="U66" s="2" t="n">
+      <c r="U66" s="3" t="n">
         <v>45692</v>
       </c>
-      <c r="V66" s="2" t="n">
+      <c r="V66" s="3" t="n">
         <v>45705</v>
       </c>
       <c r="W66" t="inlineStr">
@@ -9320,9 +8382,6 @@
           <t>Manuela Construction</t>
         </is>
       </c>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="n">
         <v>0</v>
       </c>
@@ -9365,14 +8424,9 @@
       <c r="AN66" t="n">
         <v>0.7</v>
       </c>
-      <c r="AO66" t="inlineStr"/>
       <c r="AP66" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ66" t="inlineStr"/>
-      <c r="AR66" t="inlineStr"/>
-      <c r="AS66" t="inlineStr"/>
-      <c r="AT66" t="inlineStr"/>
       <c r="AU66" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -9460,10 +8514,10 @@
       <c r="S67" t="n">
         <v>45604</v>
       </c>
-      <c r="T67" s="2" t="n">
+      <c r="T67" s="3" t="n">
         <v>45621</v>
       </c>
-      <c r="U67" s="2" t="n">
+      <c r="U67" s="3" t="n">
         <v>45644</v>
       </c>
       <c r="V67" t="inlineStr">
@@ -9477,8 +8531,6 @@
           <t>Cyrus James Builders and Supply</t>
         </is>
       </c>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
           <t>Under Suspension</t>
@@ -9526,14 +8578,9 @@
       <c r="AN67" t="n">
         <v>0.5</v>
       </c>
-      <c r="AO67" t="inlineStr"/>
       <c r="AP67" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ67" t="inlineStr"/>
-      <c r="AR67" t="inlineStr"/>
-      <c r="AS67" t="inlineStr"/>
-      <c r="AT67" t="inlineStr"/>
       <c r="AU67" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -9621,10 +8668,10 @@
       <c r="S68" t="n">
         <v>45604</v>
       </c>
-      <c r="T68" s="2" t="n">
+      <c r="T68" s="3" t="n">
         <v>45621</v>
       </c>
-      <c r="U68" s="2" t="n">
+      <c r="U68" s="3" t="n">
         <v>45644</v>
       </c>
       <c r="V68" t="inlineStr">
@@ -9638,9 +8685,6 @@
           <t>Cyrus James Builders and Supply</t>
         </is>
       </c>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="n">
         <v>0</v>
       </c>
@@ -9683,14 +8727,9 @@
       <c r="AN68" t="n">
         <v>0.25</v>
       </c>
-      <c r="AO68" t="inlineStr"/>
       <c r="AP68" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ68" t="inlineStr"/>
-      <c r="AR68" t="inlineStr"/>
-      <c r="AS68" t="inlineStr"/>
-      <c r="AT68" t="inlineStr"/>
       <c r="AU68" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -9775,13 +8814,13 @@
       <c r="S69" t="n">
         <v>45537</v>
       </c>
-      <c r="T69" s="2" t="n">
+      <c r="T69" s="3" t="n">
         <v>45553</v>
       </c>
-      <c r="U69" s="2" t="n">
+      <c r="U69" s="3" t="n">
         <v>45566</v>
       </c>
-      <c r="V69" s="2" t="n">
+      <c r="V69" s="3" t="n">
         <v>45575</v>
       </c>
       <c r="W69" t="inlineStr">
@@ -9789,9 +8828,6 @@
           <t>VYS Construction</t>
         </is>
       </c>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="n">
         <v>0</v>
       </c>
@@ -9834,14 +8870,9 @@
       <c r="AN69" t="n">
         <v>0</v>
       </c>
-      <c r="AO69" t="inlineStr"/>
       <c r="AP69" t="n">
         <v>2.25</v>
       </c>
-      <c r="AQ69" t="inlineStr"/>
-      <c r="AR69" t="inlineStr"/>
-      <c r="AS69" t="inlineStr"/>
-      <c r="AT69" t="inlineStr"/>
       <c r="AU69" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9899,7 +8930,6 @@
       <c r="L70" t="n">
         <v>1</v>
       </c>
-      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
           <t>under procurement</t>
@@ -9908,21 +8938,11 @@
       <c r="O70" t="n">
         <v>0</v>
       </c>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr">
         <is>
           <t>Awaiting SARO Release</t>
         </is>
       </c>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="n">
         <v>0</v>
       </c>
@@ -9965,12 +8985,6 @@
       <c r="AN70" t="n">
         <v>0</v>
       </c>
-      <c r="AO70" t="inlineStr"/>
-      <c r="AP70" t="inlineStr"/>
-      <c r="AQ70" t="inlineStr"/>
-      <c r="AR70" t="inlineStr"/>
-      <c r="AS70" t="inlineStr"/>
-      <c r="AT70" t="inlineStr"/>
       <c r="AU70" t="inlineStr">
         <is>
           <t>under procurement</t>
@@ -10028,28 +9042,16 @@
       <c r="L71" t="n">
         <v>1</v>
       </c>
-      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
           <t>under procurement</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr">
         <is>
           <t>Awaiting SARO Release</t>
         </is>
       </c>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="n">
         <v>0</v>
       </c>
@@ -10092,12 +9094,6 @@
       <c r="AN71" t="n">
         <v>0</v>
       </c>
-      <c r="AO71" t="inlineStr"/>
-      <c r="AP71" t="inlineStr"/>
-      <c r="AQ71" t="inlineStr"/>
-      <c r="AR71" t="inlineStr"/>
-      <c r="AS71" t="inlineStr"/>
-      <c r="AT71" t="inlineStr"/>
       <c r="AU71" t="inlineStr">
         <is>
           <t>under procurement</t>
@@ -10206,9 +9202,6 @@
           <t xml:space="preserve"> Johnray Developer and Supplies</t>
         </is>
       </c>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="n">
         <v>0</v>
       </c>
@@ -10251,12 +9244,6 @@
       <c r="AN72" t="n">
         <v>0</v>
       </c>
-      <c r="AO72" t="inlineStr"/>
-      <c r="AP72" t="inlineStr"/>
-      <c r="AQ72" t="inlineStr"/>
-      <c r="AR72" t="inlineStr"/>
-      <c r="AS72" t="inlineStr"/>
-      <c r="AT72" t="inlineStr"/>
       <c r="AU72" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -10365,9 +9352,6 @@
           <t>Johnray Developer and Supplies</t>
         </is>
       </c>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="n">
         <v>0</v>
       </c>
@@ -10410,12 +9394,6 @@
       <c r="AN73" t="n">
         <v>0</v>
       </c>
-      <c r="AO73" t="inlineStr"/>
-      <c r="AP73" t="inlineStr"/>
-      <c r="AQ73" t="inlineStr"/>
-      <c r="AR73" t="inlineStr"/>
-      <c r="AS73" t="inlineStr"/>
-      <c r="AT73" t="inlineStr"/>
       <c r="AU73" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -10500,13 +9478,13 @@
       <c r="S74" t="n">
         <v>45485</v>
       </c>
-      <c r="T74" s="2" t="n">
+      <c r="T74" s="3" t="n">
         <v>45497</v>
       </c>
-      <c r="U74" s="2" t="n">
+      <c r="U74" s="3" t="n">
         <v>45499</v>
       </c>
-      <c r="V74" s="2" t="n">
+      <c r="V74" s="3" t="n">
         <v>45595</v>
       </c>
       <c r="W74" t="inlineStr">
@@ -10514,13 +9492,11 @@
           <t>Gabriellas Enterprises</t>
         </is>
       </c>
-      <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr">
         <is>
           <t>Gabriellas Enterprises</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="n">
         <v>0</v>
       </c>
@@ -10563,14 +9539,9 @@
       <c r="AN74" t="n">
         <v>0</v>
       </c>
-      <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="n">
         <v>2.25</v>
       </c>
-      <c r="AQ74" t="inlineStr"/>
-      <c r="AR74" t="inlineStr"/>
-      <c r="AS74" t="inlineStr"/>
-      <c r="AT74" t="inlineStr"/>
       <c r="AU74" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10655,13 +9626,13 @@
       <c r="S75" t="n">
         <v>45485</v>
       </c>
-      <c r="T75" s="2" t="n">
+      <c r="T75" s="3" t="n">
         <v>45497</v>
       </c>
-      <c r="U75" s="2" t="n">
+      <c r="U75" s="3" t="n">
         <v>45499</v>
       </c>
-      <c r="V75" s="2" t="n">
+      <c r="V75" s="3" t="n">
         <v>45595</v>
       </c>
       <c r="W75" t="inlineStr">
@@ -10669,13 +9640,11 @@
           <t>Gabriellas Enterprises</t>
         </is>
       </c>
-      <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr">
         <is>
           <t>Gabriellas Enterprises</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="n">
         <v>0</v>
       </c>
@@ -10718,17 +9687,85 @@
       <c r="AN75" t="n">
         <v>0</v>
       </c>
-      <c r="AO75" t="inlineStr"/>
       <c r="AP75" t="n">
         <v>2.25</v>
       </c>
-      <c r="AQ75" t="inlineStr"/>
-      <c r="AR75" t="inlineStr"/>
-      <c r="AS75" t="inlineStr"/>
-      <c r="AT75" t="inlineStr"/>
       <c r="AU75" t="inlineStr">
         <is>
           <t>Completed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AV2:AV75" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region XII/Region XII_REPAIR.xlsx
+++ b/Filtered_By_Region/Region XII/Region XII_REPAIR.xlsx
@@ -737,47 +737,8 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
       <c r="AM2" t="n">
         <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -847,47 +808,8 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
       <c r="AM3" t="n">
         <v>1</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -957,47 +879,8 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
       <c r="AM4" t="n">
         <v>1</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
@@ -1067,47 +950,8 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
       <c r="AM5" t="n">
         <v>1</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
@@ -1177,47 +1021,8 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
       <c r="AM6" t="n">
         <v>1</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
@@ -1287,47 +1092,8 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
       <c r="AM7" t="n">
         <v>1</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
@@ -1406,47 +1172,8 @@
       <c r="V8" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
       <c r="AM8" t="n">
         <v>1</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
@@ -1525,47 +1252,8 @@
       <c r="V9" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
       <c r="AM9" t="n">
         <v>1</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
@@ -1644,47 +1332,8 @@
       <c r="V10" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
       <c r="AM10" t="n">
         <v>1</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
@@ -1763,47 +1412,8 @@
       <c r="V11" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
       <c r="AM11" t="n">
         <v>1</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
@@ -1882,47 +1492,8 @@
       <c r="V12" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
       <c r="AM12" t="n">
         <v>1</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
@@ -2001,47 +1572,8 @@
       <c r="V13" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
       <c r="AM13" t="n">
         <v>1</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
       </c>
       <c r="AO13" t="n">
         <v>44896</v>
@@ -2128,47 +1660,8 @@
       <c r="V14" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
       <c r="AM14" t="n">
         <v>1</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
@@ -2247,47 +1740,8 @@
       <c r="V15" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
       <c r="AM15" t="n">
         <v>1</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
@@ -2357,47 +1811,8 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
       <c r="AM16" t="n">
         <v>1</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
@@ -2467,47 +1882,8 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
       <c r="AM17" t="n">
         <v>1</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
@@ -2577,47 +1953,8 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
       <c r="AM18" t="n">
         <v>1</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
@@ -2687,47 +2024,8 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
       <c r="AM19" t="n">
         <v>1</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
@@ -2797,47 +2095,8 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
       <c r="AM20" t="n">
         <v>1</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
@@ -2907,47 +2166,8 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
       <c r="AM21" t="n">
         <v>1</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
@@ -3017,47 +2237,8 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
       <c r="AM22" t="n">
         <v>1</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
@@ -3127,47 +2308,8 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
       <c r="AM23" t="n">
         <v>1</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
@@ -3237,47 +2379,8 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
       <c r="AM24" t="n">
         <v>1</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
@@ -3347,47 +2450,8 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
       <c r="AM25" t="n">
         <v>1</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
@@ -3457,47 +2521,8 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
       <c r="AM26" t="n">
         <v>1</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
@@ -3607,47 +2632,8 @@
           <t>Palmares Gen. Merchandise</t>
         </is>
       </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
       <c r="AM27" t="n">
         <v>1</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
@@ -3762,47 +2748,8 @@
           <t>Cofejok Construction &amp; Supply Corporation</t>
         </is>
       </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
       <c r="AM28" t="n">
         <v>1</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
@@ -3915,47 +2862,8 @@
           <t>KLD Engineering Construction</t>
         </is>
       </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
       <c r="AM29" t="n">
         <v>1</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>0</v>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
@@ -4070,47 +2978,8 @@
           <t>Bamec Developer</t>
         </is>
       </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0</v>
-      </c>
       <c r="AM30" t="n">
         <v>1</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>0</v>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
@@ -4225,47 +3094,8 @@
           <t>Bamec Developer</t>
         </is>
       </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0</v>
-      </c>
       <c r="AM31" t="n">
         <v>1</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>0</v>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
@@ -4338,47 +3168,8 @@
       <c r="P32" s="3" t="n">
         <v>44926</v>
       </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0</v>
-      </c>
       <c r="AM32" t="n">
         <v>1</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>0</v>
       </c>
       <c r="AO32" t="n">
         <v>0</v>
@@ -4459,47 +3250,8 @@
       <c r="P33" s="3" t="n">
         <v>44926</v>
       </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>0</v>
-      </c>
       <c r="AM33" t="n">
         <v>1</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>0</v>
       </c>
       <c r="AO33" t="n">
         <v>0</v>
@@ -4577,47 +3329,8 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>0</v>
-      </c>
       <c r="AM34" t="n">
         <v>1</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>0</v>
       </c>
       <c r="AO34" t="n">
         <v>0</v>
@@ -4690,47 +3403,8 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0</v>
-      </c>
       <c r="AM35" t="n">
         <v>1</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>0</v>
       </c>
       <c r="AO35" t="n">
         <v>0</v>
@@ -4806,47 +3480,8 @@
       <c r="P36" s="3" t="n">
         <v>44926</v>
       </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
       <c r="AM36" t="n">
         <v>1</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>0</v>
       </c>
       <c r="AO36" t="n">
         <v>44986</v>
@@ -4922,47 +3557,8 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>0</v>
-      </c>
       <c r="AM37" t="n">
         <v>1</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>0</v>
       </c>
       <c r="AO37" t="n">
         <v>0</v>
@@ -5035,47 +3631,8 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="AA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>0</v>
-      </c>
       <c r="AM38" t="n">
         <v>1</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>0</v>
       </c>
       <c r="AO38" t="n">
         <v>0</v>
@@ -5148,47 +3705,8 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>0</v>
-      </c>
       <c r="AM39" t="n">
         <v>1</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>0</v>
       </c>
       <c r="AO39" t="n">
         <v>0</v>
@@ -5264,47 +3782,8 @@
       <c r="P40" s="3" t="n">
         <v>44926</v>
       </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0</v>
-      </c>
       <c r="AM40" t="n">
         <v>1</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>0</v>
       </c>
       <c r="AO40" t="n">
         <v>44986</v>
@@ -5383,47 +3862,8 @@
       <c r="P41" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
       <c r="AM41" t="n">
         <v>1</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>0</v>
       </c>
       <c r="AO41" t="n">
         <v>44896</v>
@@ -5496,47 +3936,8 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0</v>
-      </c>
       <c r="AM42" t="n">
         <v>1</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>0</v>
       </c>
       <c r="AO42" t="n">
         <v>0</v>
@@ -5609,47 +4010,8 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>0</v>
-      </c>
       <c r="AM43" t="n">
         <v>1</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>0</v>
       </c>
       <c r="AO43" t="n">
         <v>0</v>
@@ -5725,47 +4087,8 @@
       <c r="P44" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>0</v>
-      </c>
       <c r="AM44" t="n">
         <v>1</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>0</v>
       </c>
       <c r="AO44" t="n">
         <v>44896</v>
@@ -5841,47 +4164,8 @@
       <c r="P45" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>0</v>
-      </c>
       <c r="AM45" t="n">
         <v>1</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>0</v>
       </c>
       <c r="AO45" t="n">
         <v>44896</v>
@@ -5954,47 +4238,8 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>0</v>
-      </c>
       <c r="AM46" t="n">
         <v>1</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>0</v>
       </c>
       <c r="AO46" t="n">
         <v>0</v>
@@ -6067,47 +4312,8 @@
       <c r="O47" t="n">
         <v>1</v>
       </c>
-      <c r="AA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>0</v>
-      </c>
       <c r="AM47" t="n">
         <v>1</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>0</v>
       </c>
       <c r="AO47" t="n">
         <v>0</v>
@@ -6183,47 +4389,8 @@
       <c r="P48" s="3" t="n">
         <v>44895</v>
       </c>
-      <c r="AA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>0</v>
-      </c>
       <c r="AM48" t="n">
         <v>1</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>0</v>
       </c>
       <c r="AO48" t="n">
         <v>44986</v>
@@ -6299,47 +4466,8 @@
       <c r="O49" t="n">
         <v>1</v>
       </c>
-      <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>0</v>
-      </c>
       <c r="AM49" t="n">
         <v>1</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>0</v>
       </c>
       <c r="AO49" t="n">
         <v>0</v>
@@ -6412,47 +4540,8 @@
       <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="AA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>0</v>
-      </c>
       <c r="AM50" t="n">
         <v>1</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>0</v>
       </c>
       <c r="AO50" t="n">
         <v>0</v>
@@ -6525,47 +4614,8 @@
       <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="AA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>0</v>
-      </c>
       <c r="AM51" t="n">
         <v>1</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>0</v>
       </c>
       <c r="AO51" t="n">
         <v>0</v>
@@ -6638,47 +4688,8 @@
       <c r="O52" t="n">
         <v>1</v>
       </c>
-      <c r="AA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>0</v>
-      </c>
       <c r="AM52" t="n">
         <v>1</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>0</v>
       </c>
       <c r="AO52" t="n">
         <v>0</v>
@@ -6751,47 +4762,8 @@
       <c r="O53" t="n">
         <v>1</v>
       </c>
-      <c r="AA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>0</v>
-      </c>
       <c r="AM53" t="n">
         <v>1</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>0</v>
       </c>
       <c r="AO53" t="n">
         <v>0</v>
@@ -6864,47 +4836,8 @@
       <c r="O54" t="n">
         <v>1</v>
       </c>
-      <c r="AA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>0</v>
-      </c>
       <c r="AM54" t="n">
         <v>1</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>0</v>
       </c>
       <c r="AO54" t="n">
         <v>0</v>
@@ -6977,47 +4910,8 @@
       <c r="O55" t="n">
         <v>1</v>
       </c>
-      <c r="AA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>0</v>
-      </c>
       <c r="AM55" t="n">
         <v>1</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>0</v>
       </c>
       <c r="AO55" t="n">
         <v>0</v>
@@ -7090,47 +4984,8 @@
       <c r="O56" t="n">
         <v>1</v>
       </c>
-      <c r="AA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>0</v>
-      </c>
       <c r="AM56" t="n">
         <v>1</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>0</v>
       </c>
       <c r="AO56" t="n">
         <v>0</v>
@@ -7203,47 +5058,8 @@
       <c r="O57" t="n">
         <v>1</v>
       </c>
-      <c r="AA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>0</v>
-      </c>
       <c r="AM57" t="n">
         <v>1</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>0</v>
       </c>
       <c r="AO57" t="n">
         <v>0</v>
@@ -7316,47 +5132,8 @@
       <c r="O58" t="n">
         <v>1</v>
       </c>
-      <c r="AA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>0</v>
-      </c>
       <c r="AM58" t="n">
         <v>1</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>0</v>
       </c>
       <c r="AO58" t="n">
         <v>0</v>
@@ -7429,47 +5206,8 @@
       <c r="O59" t="n">
         <v>1</v>
       </c>
-      <c r="AA59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>0</v>
-      </c>
       <c r="AM59" t="n">
         <v>1</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>0</v>
       </c>
       <c r="AO59" t="n">
         <v>0</v>
@@ -7545,47 +5283,8 @@
       <c r="P60" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="AA60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>0</v>
-      </c>
       <c r="AM60" t="n">
         <v>1</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>0</v>
       </c>
       <c r="AO60" t="n">
         <v>0</v>
@@ -7716,47 +5415,8 @@
           <t>John Ray Developer &amp; Supplies</t>
         </is>
       </c>
-      <c r="AA61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>0</v>
-      </c>
       <c r="AM61" t="n">
         <v>1</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>0</v>
       </c>
       <c r="AO61" t="n">
         <v>0</v>
@@ -7882,47 +5542,8 @@
           <t>Cofejok Construction &amp; Supply Corporation</t>
         </is>
       </c>
-      <c r="AA62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>0</v>
-      </c>
       <c r="AM62" t="n">
         <v>1</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>0</v>
       </c>
       <c r="AO62" t="n">
         <v>0</v>
@@ -7995,47 +5616,8 @@
       <c r="O63" t="n">
         <v>1</v>
       </c>
-      <c r="AA63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>0</v>
-      </c>
       <c r="AM63" t="n">
         <v>1</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>0</v>
       </c>
       <c r="AO63" t="n">
         <v>0</v>
@@ -8112,47 +5694,8 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>0</v>
-      </c>
       <c r="AM64" t="n">
         <v>1</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>0</v>
       </c>
       <c r="AP64" t="n">
         <v>7.24</v>
@@ -8247,48 +5790,9 @@
           <t>Manuela Construction</t>
         </is>
       </c>
-      <c r="AA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>0</v>
-      </c>
       <c r="AM65" t="n">
         <v>0.3</v>
       </c>
-      <c r="AN65" t="n">
-        <v>0.7</v>
-      </c>
       <c r="AP65" t="n">
         <v>5.25</v>
       </c>
@@ -8382,48 +5886,9 @@
           <t>Manuela Construction</t>
         </is>
       </c>
-      <c r="AA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>0</v>
-      </c>
       <c r="AM66" t="n">
         <v>0.3</v>
       </c>
-      <c r="AN66" t="n">
-        <v>0.7</v>
-      </c>
       <c r="AP66" t="n">
         <v>5.25</v>
       </c>
@@ -8536,48 +6001,9 @@
           <t>Under Suspension</t>
         </is>
       </c>
-      <c r="AA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>0</v>
-      </c>
       <c r="AM67" t="n">
         <v>0.5</v>
       </c>
-      <c r="AN67" t="n">
-        <v>0.5</v>
-      </c>
       <c r="AP67" t="n">
         <v>5.25</v>
       </c>
@@ -8685,48 +6111,9 @@
           <t>Cyrus James Builders and Supply</t>
         </is>
       </c>
-      <c r="AA68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>0</v>
-      </c>
       <c r="AM68" t="n">
         <v>0.75</v>
       </c>
-      <c r="AN68" t="n">
-        <v>0.25</v>
-      </c>
       <c r="AP68" t="n">
         <v>5.25</v>
       </c>
@@ -8828,47 +6215,8 @@
           <t>VYS Construction</t>
         </is>
       </c>
-      <c r="AA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>0</v>
-      </c>
       <c r="AM69" t="n">
         <v>1</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>0</v>
       </c>
       <c r="AP69" t="n">
         <v>2.25</v>
@@ -8943,48 +6291,9 @@
           <t>Awaiting SARO Release</t>
         </is>
       </c>
-      <c r="AA70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>0</v>
-      </c>
       <c r="AM70" t="n">
         <v>0</v>
       </c>
-      <c r="AN70" t="n">
-        <v>0</v>
-      </c>
       <c r="AU70" t="inlineStr">
         <is>
           <t>under procurement</t>
@@ -9052,48 +6361,9 @@
           <t>Awaiting SARO Release</t>
         </is>
       </c>
-      <c r="AA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>0</v>
-      </c>
       <c r="AM71" t="n">
         <v>0</v>
       </c>
-      <c r="AN71" t="n">
-        <v>0</v>
-      </c>
       <c r="AU71" t="inlineStr">
         <is>
           <t>under procurement</t>
@@ -9202,48 +6472,9 @@
           <t xml:space="preserve"> Johnray Developer and Supplies</t>
         </is>
       </c>
-      <c r="AA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>0</v>
-      </c>
       <c r="AM72" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="AN72" t="n">
-        <v>0</v>
-      </c>
       <c r="AU72" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -9352,48 +6583,9 @@
           <t>Johnray Developer and Supplies</t>
         </is>
       </c>
-      <c r="AA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>0</v>
-      </c>
       <c r="AM73" t="n">
         <v>0.68</v>
       </c>
-      <c r="AN73" t="n">
-        <v>0</v>
-      </c>
       <c r="AU73" t="inlineStr">
         <is>
           <t>ongoing</t>
@@ -9497,47 +6689,8 @@
           <t>Gabriellas Enterprises</t>
         </is>
       </c>
-      <c r="AA74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>0</v>
-      </c>
       <c r="AM74" t="n">
         <v>1</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>0</v>
       </c>
       <c r="AP74" t="n">
         <v>2.25</v>
@@ -9645,47 +6798,8 @@
           <t>Gabriellas Enterprises</t>
         </is>
       </c>
-      <c r="AA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>0</v>
-      </c>
       <c r="AM75" t="n">
         <v>1</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>0</v>
       </c>
       <c r="AP75" t="n">
         <v>2.25</v>
